--- a/q22/Q22填表答案_向量结果_4.0.xlsx
+++ b/q22/Q22填表答案_向量结果_4.0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[-5.6389, -4.5446, -5.0841, -0.4689, 0.6038]</t>
+          <t>[-4.594, -3.4541, -3.8033, -0.0412, 0.5183]</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-4.4631, 0.0556, 15.0052, 29.4808]</t>
+          <t>[-3.426, 1.1539, 16.3296, 30.9267]</t>
         </is>
       </c>
     </row>
@@ -477,79 +477,91 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-29.3452, -3.396, 12.8076]</t>
+          <t>[-28.2926, -2.2622, 14.17]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sub009</t>
+          <t>sub008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[-1.0973, -1.2855, -25.463]</t>
+          <t>[4.4954, -13.3486, -24.7935, -1.972]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sub012</t>
+          <t>sub009</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[2.5535, 1.8492, 6.181, 2.7418, 9.3331, -23.2503, -0.9955]</t>
+          <t>[-0.0615, -0.1024, -24.1918]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sub014</t>
+          <t>sub012</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[5.4369, 0.1004, 4.1509]</t>
+          <t>[3.5944, 2.9269, 7.3244, 4.03, 10.8099, -23.0237, -1.0148]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sub018</t>
+          <t>sub014</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[-6.2018, -19.4562, -24.6167, -28.9861]</t>
+          <t>[6.474, 1.2228, 5.5764]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sub019</t>
+          <t>sub018</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[7.2605, 2.527, 2.4702, 9.3728, 6.9098, 0.0]</t>
+          <t>[-5.1667, -18.3632, -23.4394, -27.5546]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>sub019</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[8.3284, 3.6304, 3.6625, 10.6277, 6.4096, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>sub020</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[17.5417, 17.6077, 20.3626, 13.2383, 0.0002]</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[18.5775, 18.6645, 21.5323, 12.6898, 0.0002]</t>
         </is>
       </c>
     </row>

--- a/q22/Q22填表答案_向量结果_4.0.xlsx
+++ b/q22/Q22填表答案_向量结果_4.0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,120 +448,156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sub002</t>
+          <t>sub006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[-4.594, -3.4541, -3.8033, -0.0412, 0.5183]</t>
+          <t>[-79.4804, -71.6469, -41.2703, -6.6205, -0.9371]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sub004</t>
+          <t>sub011</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-3.426, 1.1539, 16.3296, 30.9267]</t>
+          <t>[8.1015, 12.8555, 13.2014]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sub005</t>
+          <t>sub042</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-28.2926, -2.2622, 14.17]</t>
+          <t>[0.4259, -1.6671, 13.2066, -0.625]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sub008</t>
+          <t>sub064</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[4.4954, -13.3486, -24.7935, -1.972]</t>
+          <t>[5.9425, 10.5661, 24.3238, 15.7722, -0.0275, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sub009</t>
+          <t>sub067</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-0.0615, -0.1024, -24.1918]</t>
+          <t>[9.5248, 13.9478, 29.8153]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sub012</t>
+          <t>sub070</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[3.5944, 2.9269, 7.3244, 4.03, 10.8099, -23.0237, -1.0148]</t>
+          <t>[5.392, 4.5351, 5.621]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sub014</t>
+          <t>sub071</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[6.474, 1.2228, 5.5764]</t>
+          <t>[-14.4551, -17.2395, 15.4691, -25.0026, -39.5461, -0.487]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sub018</t>
+          <t>sub072</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[-5.1667, -18.3632, -23.4394, -27.5546]</t>
+          <t>[2.9849, -1.5253, 27.0573]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sub019</t>
+          <t>sub075</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[8.3284, 3.6304, 3.6625, 10.6277, 6.4096, 0.0]</t>
+          <t>[-4.063, 2.4531, -8.737, 6.713, -11.202]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sub020</t>
+          <t>sub086</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[18.5775, 18.6645, 21.5323, 12.6898, 0.0002]</t>
+          <t>[10.243, 15.6213, 37.9131, 7.9005]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub089</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[3.583, -0.3097, -43.7407, -21.7073]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub092</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[12.2909, 14.6711, -6.7655, -8.1819]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub096</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[7.2305, 9.6764, 23.7608, 19.744, 2.2034, 0.0135]</t>
         </is>
       </c>
     </row>
